--- a/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
+++ b/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -475,14 +487,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Project/Release</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Project Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Stories</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Completed Stories</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Test Cases Designed</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Story Tests Executed</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Story Test Total</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Open Defects</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Defects Closed Today</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Regression Test Executed</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Regression Test Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLA/release may</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>On Track</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GCP/release dec</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>APP 25.40/release feb</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>APP 25.45/release june</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>On Track</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rentch/release jan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
@@ -494,14 +849,275 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Project/Release: SLA/release may  (Status: On Track)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Start Date: 2025-05-14  |  End Date: 2025-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4 Test cases designed (fixVersion).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Story Testing - 2 out of 4 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>* 6 defect(s) still open and 0 defect(s) closed today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>* Regression Testing - 0 out of 0 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Project/Release: GCP/release dec  (Status: At Risk)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Start Date: 2025-05-01  |  End Date: 2025-05-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1 Test case designed (fixVersion).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Story Testing - 1 out of 1 test case executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>* 1 defect(s) still open and 0 defect(s) closed today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>* Regression Testing - 0 out of 0 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Project/Release: APP 25.40/release feb  (Status: Risk)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Start Date: 2025-03-03  |  End Date: 2025-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2 Test cases designed (fixVersion).</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Story Testing - 1 out of 2 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>* 1 defect(s) still open and 0 defect(s) closed today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>* Regression Testing - 0 out of 0 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Project/Release: APP 25.45/release june  (Status: On Track)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Start Date: 2025-06-03  |  End Date: 2025-08-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0 Test cases designed (fixVersion).</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Story Testing - 0 out of 0 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>* 0 defect(s) still open and 0 defect(s) closed today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>* Regression Testing - 0 out of 0 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Project/Release: Rentch/release jan  (Status: Risk)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Start Date: 2025-02-04  |  End Date: 2025-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0 Test cases designed (fixVersion).</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Story Testing - 0 out of 0 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>* 1 defect(s) still open and 0 defect(s) closed today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>* Regression Testing - 0 out of 0 test cases executed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
+++ b/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
@@ -600,13 +600,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>6</v>
@@ -874,14 +874,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4 Test cases designed (fixVersion).</t>
+          <t>5 Test cases designed (fixVersion).</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Story Testing - 2 out of 4 test cases executed.</t>
+          <t>Story Testing - 2 out of 5 test cases executed.</t>
         </is>
       </c>
     </row>

--- a/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
+++ b/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>* 6 defect(s) still open and 0 defect(s) closed today.</t>
+          <t>* 7 defect(s) still open and 0 defect(s) closed today.</t>
         </is>
       </c>
     </row>

--- a/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
+++ b/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -888,14 +888,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
+          <t>4 {'story' if total_stories == 1 else 'stories'} in scope + Regression.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>* 7 defect(s) still open and 0 defect(s) closed today.</t>
+          <t>* 8 defect(s) still open and 0 defect(s) closed today.</t>
         </is>
       </c>
     </row>

--- a/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
+++ b/Automation/RobotFramework/Projects/LRReport/multi_project_jira_summary.xlsx
@@ -575,7 +575,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
